--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_ExtraInvitation_2.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_ExtraInvitation_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,34 +46,61 @@
     <t>约翰逊</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>说实话，这三款都让我挺惊喜的。青瓷的质感很适合日常用，玻璃茶壶的功能性对我们市场很有吸引力，珐琅彩盖碗的艺术性又能打动高端客户。</t>
+  </si>
+  <si>
+    <t>To be honest, I am quite surprised by all three products. The texture of the celadon is very suitable for everyday use, the functionality of the glass teapot is very attractive to our market, and the artistic quality of the enamel color covered bowl can impress high-end clients.</t>
+  </si>
+  <si>
+    <t>李天然</t>
+  </si>
+  <si>
+    <t>LiTianRan</t>
+  </si>
+  <si>
+    <t>能得到您的认可太荣幸了！您看要不要先选些样品带回去？</t>
+  </si>
+  <si>
+    <t>It's an honor to receive your approval! Would you like to select some samples to take back first?</t>
+  </si>
+  <si>
+    <t>正有此意。样品怎么收费？我想每种拿 3 套，青瓷和玻璃茶壶多的 1 套用来做耐摔和耐热测试，珐琅彩的看看图案细节。</t>
+  </si>
+  <si>
+    <t>That's exactly what I meant. How much do you charge for the samples? I would like to take three sets of each type, one more set of celadon and glass teapot for drop and heat resistance testing, and one more set for enamel color to see the details of the pattern。</t>
+  </si>
+  <si>
+    <t>样品免费给您，运费我们来出，用联邦快递寄到您纽约的仓库，4 天就能到。您把地址发我，今天就能安排打包。</t>
+  </si>
+  <si>
+    <t>The samples are free for you, and we will cover the shipping cost. We can send them to your warehouse in New York via FedEx, and they will arrive in four days. Please send me the address, and I can arrange the packaging today.</t>
+  </si>
+  <si>
+    <t>没问题。样品到了我会尽快安排测试，预计三周能出结果。测试通过的话，信用证付款方式不变。</t>
+  </si>
+  <si>
+    <t>No problem. Once the samples arrive, I will arrange the tests as soon as possible, with results expected in three weeks. If the tests pass, the payment method by letter of credit will remain unchanged.</t>
+  </si>
+  <si>
+    <t>好的！我这就让仓库准备样品，地址确认后马上发出。咱们先把样品关过了，后续合作就顺理成章了！</t>
+  </si>
+  <si>
+    <t>Great! I’ll have the warehouse prepare the samples, and we will send them out as soon as the address is confirmed. Once we pass the samples, future cooperation will follow naturally!</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>说实话，这三款都让我挺惊喜的。青瓷的质感很适合日常用，玻璃茶壶的功能性对我们市场很有吸引力，珐琅彩盖碗的艺术性又能打动高端客户。</t>
-  </si>
-  <si>
-    <t>李天然</t>
-  </si>
-  <si>
-    <t>能得到您的认可太荣幸了！您看要不要先选些样品带回去？</t>
-  </si>
-  <si>
-    <t>正有此意。样品怎么收费？我想每种拿 3 套，青瓷和玻璃茶壶多的 1 套用来做耐摔和耐热测试，珐琅彩的看看图案细节。</t>
-  </si>
-  <si>
-    <t>样品免费给您，运费我们来出，用联邦快递寄到您纽约的仓库，4 天就能到。您把地址发我，今天就能安排打包。</t>
-  </si>
-  <si>
-    <t>没问题。样品到了我会尽快安排测试，预计三周能出结果。测试通过的话，信用证付款方式不变。</t>
-  </si>
-  <si>
-    <t>好的！我这就让仓库准备样品，地址确认后马上发出。咱们先把样品关过了，后续合作就顺理成章了！</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>这边的合作告一段落，现在将返回到与王总沟通的商务谈判中</t>
+  </si>
+  <si>
+    <t>The cooperation on this side has come to a conclusion, and now we will return to the business negotiations with General Manager Wang.</t>
   </si>
 </sst>
 </file>
@@ -755,6 +782,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,7 +1044,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1040,21 +1074,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1065,24 +1099,24 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1093,38 +1127,38 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
